--- a/files/procurement_plan_SERVICES.xlsx
+++ b/files/procurement_plan_SERVICES.xlsx
@@ -29,25 +29,24 @@
     <t xml:space="preserve">Project Name: </t>
   </si>
   <si>
-    <t>Aid Effectiveness Project for ERD</t>
+    <t>4-Laning of Dhaka Chittagong National Highway Project.</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry/Division: </t>
   </si>
   <si>
-    <t xml:space="preserve">Ministry of Agriculture
+    <t xml:space="preserve">Roads Division
 </t>
   </si>
   <si>
     <t xml:space="preserve">Agency: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Bangladesh Institute of Administration &amp; Management Foundation (BIAM)
-Bangladesh Institute of Nuclear Agriculture (BINA)
+    <t xml:space="preserve">Roads and Highways Department, Bangladesh
 </t>
   </si>
   <si>
-    <t>Total GoB (FE): 19.03(21.43)</t>
+    <t>Total GoB (FE): 216838.41(0)</t>
   </si>
   <si>
     <t xml:space="preserve">Procuring Entity Name and Code: </t>
@@ -56,7 +55,7 @@
     <t>Procuring Entity</t>
   </si>
   <si>
-    <t>Total PA (RPA): 37(29)</t>
+    <t>Total PA (RPA): 0(0)</t>
   </si>
   <si>
     <t xml:space="preserve">Project/Programme Code: </t>
@@ -65,7 +64,7 @@
     <t>Project/Programme Code</t>
   </si>
   <si>
-    <t>Others (FE): 11.77(11.75)</t>
+    <t>Others (FE): 0(0)</t>
   </si>
   <si>
     <t>Package No.</t>
@@ -107,52 +106,52 @@
     <t>Completion of Contract</t>
   </si>
   <si>
-    <t>zzz</t>
-  </si>
-  <si>
-    <t>sfas</t>
+    <t>4-LP/S-1</t>
+  </si>
+  <si>
+    <t>Design &amp; Supervisions 4-Laning ol Dhaka- Chittagong Highway (Daudkandi-Chittagong Section)</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
   <si>
     <t>QCBS(NCT)</t>
   </si>
   <si>
-    <t>GoB</t>
-  </si>
-  <si>
-    <t>2014-10-12</t>
-  </si>
-  <si>
-    <t>2014-10-13</t>
-  </si>
-  <si>
-    <t>2014-10-14</t>
-  </si>
-  <si>
-    <t>2014-10-15</t>
-  </si>
-  <si>
-    <t>sdfasd</t>
-  </si>
-  <si>
-    <t>LCS(INT)</t>
-  </si>
-  <si>
-    <t>HOPE</t>
-  </si>
-  <si>
-    <t>UNDP</t>
-  </si>
-  <si>
-    <t>2014-10-19</t>
-  </si>
-  <si>
-    <t>2014-10-20</t>
-  </si>
-  <si>
-    <t>2014-10-21</t>
-  </si>
-  <si>
-    <t>2014-10-22</t>
+    <t>CCGP</t>
+  </si>
+  <si>
+    <t>GOB</t>
+  </si>
+  <si>
+    <t>2005-07-01</t>
+  </si>
+  <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
+    <t>2006-04-30</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>4-LP/S-2</t>
+  </si>
+  <si>
+    <t>Outsourcing of Man power</t>
+  </si>
+  <si>
+    <t>2008-03-31</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2008-06-01</t>
+  </si>
+  <si>
+    <t>2012-12-31</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -819,61 +818,61 @@
       <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9">
-        <v>4</v>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="9">
-        <v>3</v>
+        <v>2430.5</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3267.19</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="D15" s="9">
+        <v>3360</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="9">
-        <v>6</v>
-      </c>
-      <c r="H14" s="13">
-        <v>48</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9">
-        <v>999</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" s="13">
-        <v>5</v>
+        <v>229.11</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>40</v>
@@ -900,7 +899,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="16">
         <f>SUM(H7:H15)</f>
-        <v>53</v>
+        <v>3496.3</v>
       </c>
       <c r="I16" s="15" t="s"/>
       <c r="J16" s="15" t="s"/>
